--- a/DS740/Final Project/confmat.xlsx
+++ b/DS740/Final Project/confmat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwatso05\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\MSDS\GitHub\MSDS\DS740\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6292DED-55A5-481A-BB88-879A0688D604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BA3134-62EB-4094-B5F6-CFD25719B61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3E262F3E-2FF9-4A60-A8D1-9B996482410D}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{3E262F3E-2FF9-4A60-A8D1-9B996482410D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>16036</v>
+        <v>15894</v>
       </c>
       <c r="E4" s="2">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -516,7 +516,7 @@
       </c>
       <c r="H4" s="4">
         <f>(D4+E5)/SUM(D4:E5)</f>
-        <v>0.96421807013053495</v>
+        <v>0.96513421783400188</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>972</v>
+        <v>993</v>
       </c>
       <c r="E5" s="2">
-        <v>21636</v>
+        <v>21642</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -538,7 +538,7 @@
       </c>
       <c r="H5" s="4">
         <f>1-H4</f>
-        <v>3.5781929869465046E-2</v>
+        <v>3.4865782165998116E-2</v>
       </c>
       <c r="I5" s="1"/>
     </row>
